--- a/lci-Salar-de-Cauchari-Olaroz.xlsx
+++ b/lci-Salar-de-Cauchari-Olaroz.xlsx
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>0.04724834280070521</v>
+        <v>-0.03969358402037568</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.02471917072923821</v>
+        <v>0.0003707875609385735</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -2902,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="B211">
-        <v>1.5</v>
+        <v>1.334985549967131</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>72</v>
       </c>
       <c r="B258">
-        <v>0.01235159474012494</v>
+        <v>0.002470318948024988</v>
       </c>
       <c r="C258" t="s">
         <v>31</v>
